--- a/modules/orders/client/exports/寄付履歴.xlsx
+++ b/modules/orders/client/exports/寄付履歴.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>No.</t>
   </si>
@@ -53,43 +53,13 @@
   </si>
   <si>
     <t>寄付日付</t>
-  </si>
-  <si>
-    <t>111111</t>
-  </si>
-  <si>
-    <t>03-1234-5678</t>
-  </si>
-  <si>
-    <t>1110111</t>
-  </si>
-  <si>
-    <t>山田東京都品川区東五反田1-2-3</t>
-  </si>
-  <si>
-    <t>munic 1</t>
-  </si>
-  <si>
-    <t>location muncic 1</t>
-  </si>
-  <si>
-    <t>12121212</t>
-  </si>
-  <si>
-    <t>product 1111</t>
-  </si>
-  <si>
-    <t>2022/05/31</t>
-  </si>
-  <si>
-    <t>44444</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <b/>
       <color theme="1"/>
@@ -105,10 +75,6 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="メイリオ"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -118,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -141,35 +107,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -547,154 +495,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/modules/orders/client/exports/寄付履歴.xlsx
+++ b/modules/orders/client/exports/寄付履歴.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>No.</t>
   </si>
@@ -53,6 +53,54 @@
   </si>
   <si>
     <t>寄付日付</t>
+  </si>
+  <si>
+    <t>272206220009</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>1410022</t>
+  </si>
+  <si>
+    <t>東京都品川区</t>
+  </si>
+  <si>
+    <t>ELWRZ4</t>
+  </si>
+  <si>
+    <t>調布市</t>
+  </si>
+  <si>
+    <t>ABCホテル</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>お買い物券5000円分</t>
+  </si>
+  <si>
+    <t>2022/06/22</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>旅行券20000円分</t>
+  </si>
+  <si>
+    <t>272206220008</t>
+  </si>
+  <si>
+    <t>あいうえおホテル</t>
+  </si>
+  <si>
+    <t>272206220007</t>
+  </si>
+  <si>
+    <t>東京都123</t>
   </si>
 </sst>
 </file>
@@ -69,22 +117,25 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <color rgb="FF000000"/>
-      <family val="2"/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="メイリオ"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,17 +158,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -470,13 +539,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -493,6 +562,162 @@
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="3">
+        <v>30000</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="3">
+        <v>30000</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="3">
+        <v>30000</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
